--- a/HT-6/Optica BAC-06-Catálogo de componentes.xlsx
+++ b/HT-6/Optica BAC-06-Catálogo de componentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA4CE09-7395-3B41-AB99-AA86F65ABCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A31AD4-D016-41BF-AEF1-25F5B5987A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5900" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-06" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Nombre</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>Monturas, Lentes</t>
+  </si>
+  <si>
+    <t>Persona que adquiere monturas a través del portal web de Óptica Visión</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +140,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -229,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -254,9 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -265,6 +275,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -594,27 +607,27 @@
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -628,8 +641,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -640,16 +653,16 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
       <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -658,8 +671,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -671,8 +684,8 @@
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="4" t="s">
         <v>10</v>
@@ -680,8 +693,8 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -691,8 +704,8 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -703,16 +716,16 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
       <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
       <c r="B14" s="13"/>
       <c r="C14" s="4" t="s">
         <v>11</v>
@@ -721,73 +734,105 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>14</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="12"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+    <row r="21" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
